--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -554,10 +554,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -619,15 +619,9 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -649,20 +643,20 @@
         <v>5</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <f>SUM(C4:J4)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -730,17 +724,17 @@
         <v>5</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -754,32 +748,32 @@
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -805,20 +799,20 @@
         <v>5</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -853,11 +847,11 @@
         <v>5</v>
       </c>
       <c r="J9" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -928,14 +922,14 @@
         <v>5</v>
       </c>
       <c r="I11" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1045,14 +1039,14 @@
         <v>5</v>
       </c>
       <c r="I14" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1084,14 +1078,14 @@
         <v>5</v>
       </c>
       <c r="I15" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -1144,32 +1138,32 @@
         <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1195,20 +1189,20 @@
         <v>5</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -1234,20 +1228,20 @@
         <v>5</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -1300,32 +1294,32 @@
         <v>18</v>
       </c>
       <c r="C21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -1384,26 +1378,26 @@
         <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -1477,11 +1471,11 @@
         <v>5</v>
       </c>
       <c r="J25" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -1498,32 +1492,32 @@
         <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -1576,32 +1570,32 @@
         <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -1636,11 +1630,11 @@
         <v>5</v>
       </c>
       <c r="J29" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -1654,32 +1648,32 @@
         <v>27</v>
       </c>
       <c r="C30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -1714,11 +1708,11 @@
         <v>4</v>
       </c>
       <c r="J31" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -1741,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" s="2">
         <v>5</v>
@@ -1753,14 +1747,14 @@
         <v>5</v>
       </c>
       <c r="I32" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="6">
         <v>5</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>

--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -557,7 +557,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -619,9 +619,15 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">

--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -557,7 +557,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2">
         <v>4</v>
@@ -1718,10 +1718,10 @@
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M31" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31" t="s">
         <v>40</v>

--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -557,7 +557,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1234,23 +1234,23 @@
         <v>5</v>
       </c>
       <c r="G19" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H19" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I19" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J19" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="13" x14ac:dyDescent="0.25">

--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -554,10 +554,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1498,32 +1498,32 @@
         <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H26" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I26" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J26" s="7">
         <v>2</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>

--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>2ИСИП-722: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -557,7 +557,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1526,10 @@
         <v>37</v>
       </c>
       <c r="M26" s="7">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="13" x14ac:dyDescent="0.25">

--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -554,10 +554,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -554,10 +554,10 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1526,7 @@
         <v>37</v>
       </c>
       <c r="M26" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
         <v>38</v>

--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -560,7 +560,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4:P32"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -625,21 +625,11 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9">
-        <v>1</v>
-      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">

--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -554,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -571,12 +571,12 @@
     <col min="12" max="12" width="4.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -612,7 +612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -638,8 +638,20 @@
         <v>1</v>
       </c>
       <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -684,8 +696,24 @@
         <f>O4-M4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <f>IF(R$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:U19" si="0">IF(S$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -717,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L32" si="0">SUM(C5:J5)</f>
+        <f t="shared" ref="L5:L32" si="1">SUM(C5:J5)</f>
         <v>40</v>
       </c>
       <c r="M5" s="7">
@@ -727,11 +755,27 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P32" si="1">O5-M5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P5:P32" si="2">O5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:U32" si="3">IF(R$3=$M5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -763,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="M6" s="7">
@@ -773,11 +817,27 @@
         <v>4</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -809,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M7" s="7">
@@ -819,43 +879,59 @@
         <v>3</v>
       </c>
       <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="M8" s="7">
@@ -865,11 +941,27 @@
         <v>4</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -901,7 +993,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M9" s="7">
@@ -911,11 +1003,27 @@
         <v>5</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -947,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M10" s="7">
@@ -957,11 +1065,27 @@
         <v>5</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -993,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M11" s="7">
@@ -1003,11 +1127,27 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1039,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M12" s="7">
@@ -1049,11 +1189,27 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1085,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M13" s="7">
@@ -1095,11 +1251,27 @@
         <v>5</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1131,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M14" s="7">
@@ -1141,11 +1313,27 @@
         <v>5</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1177,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M15" s="7">
@@ -1187,11 +1375,27 @@
         <v>5</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1223,7 +1427,7 @@
         <v>5</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M16" s="7">
@@ -1233,11 +1437,27 @@
         <v>5</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1269,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M17" s="7">
@@ -1279,11 +1499,27 @@
         <v>3</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1315,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="M18" s="7">
@@ -1325,11 +1561,27 @@
         <v>4</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1361,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M19" s="7">
@@ -1371,11 +1623,27 @@
         <v>4</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1407,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M20" s="7">
@@ -1417,11 +1685,27 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1453,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M21" s="7">
@@ -1463,11 +1747,27 @@
         <v>3</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1499,7 +1799,7 @@
         <v>5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M22" s="7">
@@ -1509,11 +1809,27 @@
         <v>5</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1545,7 +1861,7 @@
         <v>5</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23" si="2">SUM(C23:J23)</f>
+        <f t="shared" ref="L23" si="4">SUM(C23:J23)</f>
         <v>40</v>
       </c>
       <c r="M23" s="7">
@@ -1555,11 +1871,27 @@
         <v>3</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1591,7 +1923,7 @@
         <v>5</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M24" s="7">
@@ -1601,11 +1933,27 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1637,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M25" s="7">
@@ -1647,11 +1995,27 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1683,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M26" s="7">
@@ -1693,11 +2057,27 @@
         <v>3</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1729,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M27" s="7">
@@ -1739,11 +2119,27 @@
         <v>5</v>
       </c>
       <c r="P27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1775,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M28" s="7">
@@ -1785,11 +2181,27 @@
         <v>3</v>
       </c>
       <c r="P28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1821,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M29" s="7">
@@ -1831,11 +2243,27 @@
         <v>5</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1867,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M30" s="7">
@@ -1877,11 +2305,27 @@
         <v>3</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1913,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="M31" s="7">
@@ -1923,11 +2367,27 @@
         <v>4</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1959,7 +2419,7 @@
         <v>5</v>
       </c>
       <c r="L32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M32" s="7">
@@ -1969,8 +2429,24 @@
         <v>5</v>
       </c>
       <c r="P32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="13" thickTop="1" x14ac:dyDescent="0.25">
@@ -1984,6 +2460,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="C4:J22 C24:J32">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L22 L24:L32">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1995,7 +2483,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L22 L24:L32">
+  <conditionalFormatting sqref="M4:M22 M24:M32">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2007,7 +2495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M22 M24:M32">
+  <conditionalFormatting sqref="C23:J23">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2019,7 +2507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:J23">
+  <conditionalFormatting sqref="L23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2031,7 +2519,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
+  <conditionalFormatting sqref="M23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2043,7 +2531,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
+  <conditionalFormatting sqref="R4:U32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -554,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2449,13 +2449,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:21" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>4</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f>SUM(R4:R32)</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ref="S36:U36" si="5">SUM(S4:S32)</f>
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/2ИСИП-722_ТерВер.xlsx
+++ b/2ИСИП-722_ТерВер.xlsx
@@ -560,7 +560,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
